--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiagomazza\Desktop\analise offline\analise-offline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiagomazza\Desktop\analise-offline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Nome</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Código</t>
+  </si>
+  <si>
+    <t>Bonus da Meta 1</t>
+  </si>
+  <si>
+    <t>Bonus da Meta 2</t>
+  </si>
+  <si>
+    <t>Bonus da Meta 3</t>
+  </si>
+  <si>
+    <t>Bonus da Meta 4</t>
   </si>
 </sst>
 </file>
@@ -864,15 +876,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -886,16 +907,28 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -908,17 +941,17 @@
       <c r="D2">
         <v>1000</v>
       </c>
-      <c r="E2">
-        <v>2000</v>
-      </c>
       <c r="F2">
         <v>3000</v>
       </c>
-      <c r="G2">
-        <v>4000</v>
+      <c r="H2">
+        <v>5000</v>
+      </c>
+      <c r="J2">
+        <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -931,17 +964,17 @@
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2000</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>3000</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -954,17 +987,17 @@
       <c r="D4">
         <v>1000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2000</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>3000</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -977,17 +1010,17 @@
       <c r="D5">
         <v>1000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2000</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>3000</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1000,13 +1033,13 @@
       <c r="D6">
         <v>1000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2000</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>3000</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>4000</v>
       </c>
     </row>
